--- a/database/industries/ravankar/shaspa/product/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C58FE6-EF21-4633-B24C-454C0E40F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +345,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -356,7 +357,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -403,6 +404,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,6 +456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,17 +624,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -614,7 +649,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,7 +666,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,7 +683,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -663,7 +698,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -680,7 +715,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -697,7 +732,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -712,7 +747,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -749,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -764,7 +799,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -803,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -842,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -881,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -920,7 +955,7 @@
         <v>280235</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -959,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1037,7 +1072,7 @@
         <v>22185</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1150,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1228,7 @@
         <v>42140</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>64984</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>61323</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>24256</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1384,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>215915</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
@@ -1464,7 +1499,7 @@
         <v>720972</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1479,7 +1514,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1494,7 +1529,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1509,7 +1544,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1561,7 +1596,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
@@ -1756,7 +1791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1830,7 @@
         <v>268374</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -2029,7 +2064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2103,7 @@
         <v>21619</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2181,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2185,7 +2220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2259,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>40</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>40335</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2491,7 @@
         <v>67245</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>29</v>
       </c>
@@ -2495,7 +2530,7 @@
         <v>62567</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>31</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>8151</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -2612,7 +2647,7 @@
         <v>207668</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
@@ -2651,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>34</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>703262</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2703,7 +2738,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2718,7 +2753,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2733,7 +2768,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>42</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2785,7 +2820,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>37</v>
       </c>
@@ -2863,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
@@ -2941,7 +2976,7 @@
         <v>56896215</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +3015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>39</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>23</v>
       </c>
@@ -3136,7 +3171,7 @@
         <v>4031971</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>24</v>
       </c>
@@ -3175,7 +3210,7 @@
         <v>166365</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>25</v>
       </c>
@@ -3214,7 +3249,7 @@
         <v>543388</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
@@ -3253,7 +3288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>40</v>
       </c>
@@ -3292,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>41</v>
       </c>
@@ -3331,7 +3366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>27</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>8331083</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>28</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>16197222</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3483,7 @@
         <v>19192581</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>30</v>
       </c>
@@ -3487,7 +3522,7 @@
         <v>7013042</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3561,7 @@
         <v>2531905</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3565,7 +3600,7 @@
         <v>17073688</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>34</v>
       </c>
@@ -3641,7 +3676,7 @@
         <v>131977460</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3656,7 +3691,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3671,7 +3706,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3686,7 +3721,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>44</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3738,7 +3773,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>37</v>
       </c>
@@ -3816,7 +3851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>19</v>
       </c>
@@ -3855,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
@@ -3894,7 +3929,7 @@
         <v>212003454</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>38</v>
       </c>
@@ -3933,7 +3968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>39</v>
       </c>
@@ -3972,7 +4007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +4046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>22</v>
       </c>
@@ -4050,7 +4085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>23</v>
       </c>
@@ -4089,7 +4124,7 @@
         <v>186501272</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4163,7 @@
         <v>230742025</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>25</v>
       </c>
@@ -4167,7 +4202,7 @@
         <v>320205068</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>26</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>40</v>
       </c>
@@ -4245,7 +4280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>41</v>
       </c>
@@ -4284,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>27</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>206547242</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>28</v>
       </c>
@@ -4362,7 +4397,7 @@
         <v>240868793</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>29</v>
       </c>
@@ -4401,7 +4436,7 @@
         <v>306752457</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>30</v>
       </c>
@@ -4440,7 +4475,7 @@
         <v>281818043</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>31</v>
       </c>
@@ -4479,7 +4514,7 @@
         <v>310625077</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>32</v>
       </c>
@@ -4518,7 +4553,7 @@
         <v>82216268</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>33</v>
       </c>
@@ -4557,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4572,7 +4607,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4587,7 +4622,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4602,7 +4637,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>48</v>
       </c>
@@ -4639,7 +4674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4654,7 +4689,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>15</v>
       </c>
@@ -4693,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
@@ -4732,7 +4767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>20</v>
       </c>
@@ -4771,7 +4806,7 @@
         <v>-36835789</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>39</v>
       </c>
@@ -4810,7 +4845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>23</v>
       </c>
@@ -4849,7 +4884,7 @@
         <v>-2829987</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>24</v>
       </c>
@@ -4888,7 +4923,7 @@
         <v>-149849</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>25</v>
       </c>
@@ -4927,7 +4962,7 @@
         <v>-378286</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>26</v>
       </c>
@@ -4966,7 +5001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>40</v>
       </c>
@@ -5005,7 +5040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>27</v>
       </c>
@@ -5044,7 +5079,7 @@
         <v>-5437892</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>28</v>
       </c>
@@ -5083,7 +5118,7 @@
         <v>-15704877</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>29</v>
       </c>
@@ -5122,7 +5157,7 @@
         <v>-15139349</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>30</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>-5443351</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>31</v>
       </c>
@@ -5200,7 +5235,7 @@
         <v>-1745388</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>32</v>
       </c>
@@ -5239,7 +5274,7 @@
         <v>-12691604</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>33</v>
       </c>
@@ -5278,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
         <v>34</v>
       </c>
@@ -5315,7 +5350,7 @@
         <v>-96356372</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5330,7 +5365,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5345,7 +5380,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5360,7 +5395,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>49</v>
       </c>
@@ -5397,7 +5432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5412,7 +5447,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>15</v>
       </c>
@@ -5451,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>19</v>
       </c>
@@ -5490,7 +5525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5564,7 @@
         <v>20060426</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>39</v>
       </c>
@@ -5568,7 +5603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>23</v>
       </c>
@@ -5607,7 +5642,7 @@
         <v>1201984</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>24</v>
       </c>
@@ -5646,7 +5681,7 @@
         <v>16516</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>25</v>
       </c>
@@ -5685,7 +5720,7 @@
         <v>165102</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>26</v>
       </c>
@@ -5724,7 +5759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>40</v>
       </c>
@@ -5763,7 +5798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>27</v>
       </c>
@@ -5802,7 +5837,7 @@
         <v>2893191</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>28</v>
       </c>
@@ -5841,7 +5876,7 @@
         <v>492345</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>29</v>
       </c>
@@ -5880,7 +5915,7 @@
         <v>4053232</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>30</v>
       </c>
@@ -5919,7 +5954,7 @@
         <v>1569691</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
@@ -5958,7 +5993,7 @@
         <v>786517</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>32</v>
       </c>
@@ -5997,7 +6032,7 @@
         <v>4382084</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>33</v>
       </c>
@@ -6036,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="14" t="s">
         <v>34</v>
       </c>

--- a/database/industries/ravankar/shaspa/product/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/product/yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C58FE6-EF21-4633-B24C-454C0E40F1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37A8E1-4EF3-4920-936E-756FA19AA352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ravankar/shaspa/product/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC554F7A-893D-4E25-B020-F09B1B4E3C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE81061-2F8A-41C1-9042-34A82CD14066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -614,12 +614,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -629,7 +629,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -663,7 +663,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -697,7 +697,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -729,7 +729,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -825,7 +825,7 @@
         <v>280235</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -849,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -897,7 +897,7 @@
         <v>22185</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -921,7 +921,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>42140</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>64984</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>61323</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>24256</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>215915</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>720972</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1169,7 +1169,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1179,7 +1179,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1189,7 +1189,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1221,7 +1221,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>268374</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>33</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>21619</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>40335</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>23</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>67245</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>62567</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>8151</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>207668</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>28</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>703262</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1919,7 +1919,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>56896215</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>16</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>4031971</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>19</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>166365</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>20</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>543388</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>21</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>35</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>8331083</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>16197222</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>19192581</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>25</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>7013042</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>26</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>2531905</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>17073688</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>29</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>131977460</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2487,7 +2487,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2497,7 +2497,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2507,7 +2507,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>39</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2539,7 +2539,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>212003454</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>33</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>34</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>16</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>17</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>18</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>186501272</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>230742025</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>320205068</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>21</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>35</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>36</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>22</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>206547242</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>23</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>240868793</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>306752457</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>281818043</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>26</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>310625077</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>27</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>82216268</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3053,7 +3053,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3073,7 +3073,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>43</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3105,7 +3105,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>10</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>-36835789</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>34</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>18</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>-2829987</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>-149849</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>-378286</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>22</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>-5437892</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>23</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>-15704877</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>-15139349</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>25</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>-5443351</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>26</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>-1745388</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>27</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>-12691604</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>28</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>29</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>-96356372</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3521,7 +3521,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3531,7 +3531,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3541,7 +3541,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>44</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3573,7 +3573,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>14</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>20060426</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1201984</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>19</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>16516</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>20</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>165102</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>21</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>22</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>2893191</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>23</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>492345</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>4053232</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1569691</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>26</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>786517</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>27</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>4382084</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>28</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="14" t="s">
         <v>29</v>
       </c>
